--- a/biology/Zoologie/Brève_versicolore/Brève_versicolore.xlsx
+++ b/biology/Zoologie/Brève_versicolore/Brève_versicolore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_versicolore</t>
+          <t>Brève_versicolore</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pitta versicolor
 La Brève versicolore (Pitta versicolor) est une espèce de passereaux appartenant à la famille des Pittidae. Elle peuple l'Australie, l'Indonésie et la Nouvelle-Guinée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Br%C3%A8ve_versicolore</t>
+          <t>Brève_versicolore</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La reproduction a lieu de septembre à janvier, mais elle débute parfois dès le mois d'août. Elle fait une nichée par an, parfois deux. Le nid est une importante structure de forme ronde, dont l'entrée est quelque peu complexe. La base de 2 à 7 cm de profondeur est faite de petits morceaux de bois secs, sur laquelle est bâti le nid à l'aide de végétaux souples et secs, principalement des feuilles, de la fougère, de la mousse, des radicelles et de l'écorce. Ce nid est façonné en forme de bol et est nettement bordé par des fougères et des radicelles noirâtres[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction a lieu de septembre à janvier, mais elle débute parfois dès le mois d'août. Elle fait une nichée par an, parfois deux. Le nid est une importante structure de forme ronde, dont l'entrée est quelque peu complexe. La base de 2 à 7 cm de profondeur est faite de petits morceaux de bois secs, sur laquelle est bâti le nid à l'aide de végétaux souples et secs, principalement des feuilles, de la fougère, de la mousse, des radicelles et de l'écorce. Ce nid est façonné en forme de bol et est nettement bordé par des fougères et des radicelles noirâtres.
 </t>
         </is>
       </c>
